--- a/testDataSets/example_data.xlsx
+++ b/testDataSets/example_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiacovin/Dropbox/Research/__Manuscripts in Progress/__ENKI/__TheCode/VESIcal/testDataSets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiacovin/Dropbox/Research/__Manuscripts in Progress/__VESIcal/__TheCode/VESIcal/testDataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315E0A4-96AD-C44B-A9DA-F0F5176489D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257E6DE7-618C-3943-A293-076396DB2B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="11360" windowWidth="27420" windowHeight="17540" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
+    <workbookView xWindow="36580" yWindow="10580" windowWidth="27420" windowHeight="17540" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Citations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>SiO2</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Rhyolite</t>
-  </si>
-  <si>
-    <t>samp. P1968</t>
   </si>
   <si>
     <t>MYERS M. L., WALLACE P. J., WILSON C. J. N.:   INFERRING MAGMA ASCENT TIMESCALES AND RECONSTRUCTING CONDUIT PROCESSES IN EXPLOSIVE RHYOLITIC ERUPTIONS USING DIFFUSIVE LOSSES OF HYDROGEN FROM MELT INCLUSIONS |  J. VOLCANOL. GEOTHERM. RES. 369    [2019]  95-112  | doi: 10.1016/j.jvolgeores.2018.11.009</t>
@@ -191,6 +188,15 @@
   </si>
   <si>
     <t>Kil3-6_1a</t>
+  </si>
+  <si>
+    <t>samp. P1968a</t>
+  </si>
+  <si>
+    <t>samp. P1968b</t>
+  </si>
+  <si>
+    <t>samp. P1968c</t>
   </si>
 </sst>
 </file>
@@ -585,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEE8FDC-12AB-AC4E-AD7D-943540347F5B}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>48.249207338872701</v>
@@ -1215,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>76.974879743452703</v>
@@ -1264,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>76.943844870107199</v>
@@ -1313,7 +1319,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>77.187204822776394</v>
@@ -1356,13 +1362,13 @@
     </row>
     <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>75.413965938011899</v>
@@ -1407,13 +1413,13 @@
     </row>
     <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>76.613585704740004</v>
@@ -1458,13 +1464,13 @@
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="9">
         <v>48.03</v>
@@ -1515,13 +1521,13 @@
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="9">
         <v>52.98</v>
@@ -1572,13 +1578,13 @@
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="9">
         <v>44.61</v>
@@ -1655,22 +1661,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
